--- a/chi13/sentiment_result.xlsx
+++ b/chi13/sentiment_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/film-comment-sentiment-classification/chi13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE71313-E9D9-8747-B469-BDA4B4A323D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E95A550-3571-1245-AD40-2EB976584802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="151" r:id="rId3"/>
+    <pivotCache cacheId="152" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2957,6 +2957,48 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2990,6 +3032,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-821E-584D-8B6B-DA5CAF0E4EA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3005,6 +3052,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-821E-584D-8B6B-DA5CAF0E4EA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3020,6 +3072,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-821E-584D-8B6B-DA5CAF0E4EA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -9084,7 +9141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94BDFA92-0ACA-8046-9B49-D8D3237EB823}" name="PivotTable27" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94BDFA92-0ACA-8046-9B49-D8D3237EB823}" name="PivotTable27" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -9997,12 +10054,48 @@
   <dataFields count="1">
     <dataField name="Count of text" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10403,11 +10496,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D882"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
